--- a/用例数据/沪A/上证lof/申购/Tday/测试结果.xlsx
+++ b/用例数据/沪A/上证lof/申购/Tday/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813C9320-326A-484B-9EE4-4869029BF676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unprocessedreckoningresulthis" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="164">
   <si>
     <t>KNOCKTIME</t>
   </si>
@@ -509,12 +510,16 @@
   </si>
   <si>
     <t>000007044948</t>
+  </si>
+  <si>
+    <t>005_001_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,10 +838,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2348,14 +2353,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DA516"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="39" max="39" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2787,7 +2795,7 @@
         <v>136</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>143</v>
